--- a/medicine/Psychotrope/Märzen/Märzen.xlsx
+++ b/medicine/Psychotrope/Märzen/Märzen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A4rzen</t>
+          <t>Märzen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Märzen, Märzenbier (bière de mars) ou Oktoberfestbier est une bière de saison allemande de fermentation basse, au goût houblonné et de couleur variable.
 Elle est particulièrement appréciée lors de la fête de la bière (Oktoberfest) à Munich.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A4rzen</t>
+          <t>Märzen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la fermentation basse nécessite une température inférieure à dix degrés, la bière ne pouvait être brassée que jusqu’au mois de mars. Par ailleurs, l’édit bavarois de 1539 sur le brassage de la bière interdisait le brassage entre le 23 avril et le 29 septembre en raison de risques d’incendie.
 Les brasseurs devaient donc faire des stocks avant l’été et produisaient ainsi en mars une bière houblonnée, relativement forte en alcool et capable de se conserver environ six mois. Elle était stockée au frais et dans le noir. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A4rzen</t>
+          <t>Märzen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans tous les cas la bière de l'Oktoberfest a une densité primitive de moût comprise entre 13,5 et 14 %. Elle mature huit semaines, au lieu de quatre pour les bières classiques[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans tous les cas la bière de l'Oktoberfest a une densité primitive de moût comprise entre 13,5 et 14 %. Elle mature huit semaines, au lieu de quatre pour les bières classiques.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A4rzen</t>
+          <t>Märzen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les marques Wiesen-Bier, Wiesen-Märzen et Münchener Oktoberfestbier sont des marques déposées par l'association des brasseries munichoises depuis 1952[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les marques Wiesen-Bier, Wiesen-Märzen et Münchener Oktoberfestbier sont des marques déposées par l'association des brasseries munichoises depuis 1952.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A4rzen</t>
+          <t>Märzen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Aujourd’hui</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de Märzen est différemment compris en Europe :
 En Angleterre, il est devenu un synonyme de bière de l’Oktoberfest ;
